--- a/Línea Base/PVCU/Linea_Base_1/Analisis/PVCU-LE.xlsx
+++ b/Línea Base/PVCU/Linea_Base_1/Analisis/PVCU-LE.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
   <si>
     <t>Lista de Épicas</t>
   </si>
@@ -67,7 +67,7 @@
     <t>Iniciar sesión</t>
   </si>
   <si>
-    <t>Por iniciar</t>
+    <t>Por desarrollar</t>
   </si>
   <si>
     <t>HU1.2</t>
@@ -109,94 +109,130 @@
     <t>HU3.2</t>
   </si>
   <si>
-    <t>Agregar socio</t>
+    <t>Actualizar marca</t>
+  </si>
+  <si>
+    <t>HU3.3</t>
+  </si>
+  <si>
+    <t>Salir de marca</t>
+  </si>
+  <si>
+    <t>HU3.4</t>
+  </si>
+  <si>
+    <t>Eliminar marca</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
+    <t>Gestión de vendedores</t>
+  </si>
+  <si>
+    <t>HU4.1</t>
+  </si>
+  <si>
+    <t>Agregar vendedor</t>
+  </si>
+  <si>
+    <t>HU4.2</t>
+  </si>
+  <si>
+    <t>Actualizar vendedor</t>
+  </si>
+  <si>
+    <t>HU4.3</t>
+  </si>
+  <si>
+    <t>Eliminar vendedor</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
     <t>Gestión de productos</t>
   </si>
   <si>
-    <t>HU4.1</t>
+    <t>HU5.1</t>
   </si>
   <si>
     <t>Publicar producto</t>
   </si>
   <si>
-    <t>HU4.2</t>
+    <t>HU5.2</t>
   </si>
   <si>
     <t>Actualizar producto</t>
   </si>
   <si>
-    <t>HU4.3</t>
+    <t>HU5.3</t>
   </si>
   <si>
     <t>Eliminar producto</t>
   </si>
   <si>
-    <t>E5</t>
+    <t>E6</t>
   </si>
   <si>
     <t>Solicitud de pedido</t>
   </si>
   <si>
-    <t>HU5.1</t>
+    <t>HU6.1</t>
   </si>
   <si>
     <t>Seleccionar detalles de compra</t>
   </si>
   <si>
-    <t>HU5.2</t>
+    <t>HU6.2</t>
   </si>
   <si>
     <t>Calificar vendedor</t>
   </si>
   <si>
-    <t>HU5.3</t>
+    <t>HU6.3</t>
   </si>
   <si>
     <t>Coordinar detalles de compra</t>
   </si>
   <si>
-    <t>E6</t>
+    <t>E7</t>
   </si>
   <si>
     <t>Gestión de pedidos</t>
   </si>
   <si>
-    <t>HU6.1</t>
+    <t>HU7.1</t>
   </si>
   <si>
     <t>Confirmar entrega</t>
   </si>
   <si>
-    <t>HU6.2</t>
+    <t>HU7.2</t>
   </si>
   <si>
     <t>Cancerlar pedido</t>
   </si>
   <si>
-    <t>E7</t>
+    <t>E8</t>
   </si>
   <si>
     <t>Reporte de problemas</t>
   </si>
   <si>
-    <t>HU7.1</t>
+    <t>HU8.1</t>
   </si>
   <si>
     <t>Reportar vendedor</t>
   </si>
   <si>
-    <t>HU7.2</t>
+    <t>HU8.2</t>
   </si>
   <si>
     <t>Recuperar cuenta</t>
   </si>
   <si>
-    <t>HU7.3</t>
+    <t>HU8.3</t>
   </si>
   <si>
     <t>Contactar soporte</t>
@@ -307,6 +343,20 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
@@ -320,20 +370,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -395,21 +431,21 @@
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -742,20 +778,20 @@
       <c r="E10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -772,20 +808,20 @@
       <c r="E12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -796,190 +832,259 @@
       <c r="C14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="E16" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="F16" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E17" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="17" t="s">
+      <c r="F17" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="C18" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="E19" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="F19" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E20" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="14" t="s">
+      <c r="F20" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="C21" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="F22" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E23" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="E24" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="20"/>
       <c r="C25" s="21"/>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E26" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14" t="s">
+      <c r="F26" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="C27" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="D27" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="12" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="23">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
@@ -987,20 +1092,22 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C20"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B21:B23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="E2"/>
